--- a/m1/StateViewer/WordStorage/Resources/stringtable.xlsx
+++ b/m1/StateViewer/WordStorage/Resources/stringtable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gea01\Documents\psgg\psgg-editor\m1\StateViewer\WordStorage\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gea01\Documents\psgg\psgg-editor-public\editor\m1\StateViewer\WordStorage\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECBA631-DEAB-4F30-BE0C-AF45B4B322BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA94E3F-D5BE-4ADE-9D53-7E7D93749334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="315" windowWidth="24960" windowHeight="17835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20640" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stringtable_txt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1649">
   <si>
     <t>id</t>
     <phoneticPr fontId="18"/>
@@ -8367,6 +8367,14 @@
   </si>
   <si>
     <t>Use this editor for all languages</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>efbmp_copy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>COPY</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -12261,13 +12269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>163871</xdr:colOff>
-      <xdr:row>554</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>51209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2228646</xdr:colOff>
-      <xdr:row>554</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>655483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12340,13 +12348,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>174113</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>30726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2238888</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12408,13 +12416,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>163871</xdr:colOff>
-      <xdr:row>564</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>102419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2228646</xdr:colOff>
-      <xdr:row>564</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>706693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12476,13 +12484,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>143387</xdr:colOff>
-      <xdr:row>590</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>112661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2208162</xdr:colOff>
-      <xdr:row>590</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>716935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12634,13 +12642,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133145</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>81935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2197920</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>706693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12713,13 +12721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>163872</xdr:colOff>
-      <xdr:row>637</xdr:row>
+      <xdr:row>638</xdr:row>
       <xdr:rowOff>327743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2228647</xdr:colOff>
-      <xdr:row>637</xdr:row>
+      <xdr:row>638</xdr:row>
       <xdr:rowOff>952501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12792,13 +12800,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92177</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>650</xdr:row>
       <xdr:rowOff>204839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3359252</xdr:colOff>
-      <xdr:row>655</xdr:row>
+      <xdr:row>656</xdr:row>
       <xdr:rowOff>48752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12871,9 +12879,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12911,7 +12919,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13017,7 +13025,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13159,7 +13167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13167,10 +13175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C642"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B504" sqref="B504"/>
+    <sheetView tabSelected="1" topLeftCell="A547" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C555" sqref="C555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18514,900 +18522,911 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A556" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>1220</v>
-      </c>
-    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A555" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A561" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B561" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="C561" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A561" s="1" t="s">
+    <row r="562" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A562" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B562" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="C562" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A563" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>1242</v>
-      </c>
-    </row>
+    <row r="563" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A565" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B565" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="C565" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A566" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>1245</v>
-      </c>
-    </row>
+    <row r="566" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570" s="1" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1308</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A572" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1263</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A573" s="1" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A574" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1309</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1272</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577" s="1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580" s="1" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581" s="1" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583" s="1" t="s">
-        <v>1287</v>
+        <v>1316</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1288</v>
+        <v>1317</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1289</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589" s="1" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A591" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B591" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="C590" s="2" t="s">
+      <c r="C591" s="2" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A592" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B592" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C592" s="2" t="s">
-        <v>1331</v>
-      </c>
-    </row>
+    <row r="592" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593" s="1" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A596" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B596" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="C596" s="2" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A597" s="1" t="s">
+    <row r="597" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A598" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B598" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="C598" s="2" t="s">
         <v>1392</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A598" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B598" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A599" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A606" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B606" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="C606" s="2" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="A606" s="1" t="s">
+    <row r="607" spans="1:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="A607" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B607" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="C607" s="2" t="s">
         <v>1507</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A607" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A608" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A609" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A618" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A619" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A620" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>805</v>
+        <v>1481</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1466</v>
+        <v>805</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1467</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A628" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A629" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1469</v>
+        <v>1493</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1470</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A630" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A631" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A632" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1510</v>
+        <v>1475</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1509</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A633" s="1" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A634" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A635" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A636" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A637" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B637" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="C636" s="2" t="s">
+      <c r="C637" s="2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A637" s="1" t="s">
+    <row r="638" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A638" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B638" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="C637" s="2" t="s">
+      <c r="C638" s="2" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A639" s="1" t="s">
+    <row r="639" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A640" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B640" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="C639" s="2" t="s">
+      <c r="C640" s="2" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A641" s="1" t="s">
+    <row r="642" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A642" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B642" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="C641" s="2" t="s">
+      <c r="C642" s="2" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A642" s="1" t="s">
+    <row r="643" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A643" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B643" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="C642" s="2" t="s">
+      <c r="C643" s="2" t="s">
         <v>1587</v>
       </c>
     </row>
